--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196139.0803758158</v>
+        <v>196446.5367484681</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12936495.09829997</v>
+        <v>12617883.90382515</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11255880.80187741</v>
+        <v>10943609.97017262</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6042497.644008715</v>
+        <v>6173817.207636295</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>219.9483858441845</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>390.1527797502169</v>
+        <v>93.95221513594151</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4384330572208603</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -798,7 +800,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>180.9677977226287</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.31383608752367</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="5">
@@ -899,70 +901,70 @@
         <v>390.1527797502169</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>390.1527797502169</v>
+      </c>
+      <c r="Y5" t="n">
         <v>343.646568403991</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +977,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4979279221673361</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1038,7 +1040,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>81.51777286877746</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>22.55063026834918</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>54.68688746169138</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>353.8766502980249</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>122.2618999602331</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.32371892052846</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -1221,7 +1223,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1272,13 +1274,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>52.0932078919478</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.68688746169137</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>193.5927947728083</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>258.1583233478934</v>
+      </c>
+      <c r="D11" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>85.48824505609757</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>343.6465684039911</v>
       </c>
       <c r="Y11" t="n">
         <v>390.1527797502169</v>
@@ -1455,10 +1457,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>105.9202115588047</v>
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.4384330572209728</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
@@ -1528,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>48.57570989689638</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>390.1527797502169</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>343.6465684039911</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y14" t="n">
-        <v>390.1527797502169</v>
+        <v>7.537471181140739</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
@@ -1695,13 +1697,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>73.92477447070563</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>36.04597389621181</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1743,13 +1745,13 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>7.537471181140739</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>390.1527797502169</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>390.1527797502169</v>
+        <v>83.40964586891759</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1934,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>57.16999246801783</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
         <v>157.7484451748619</v>
@@ -1989,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>229.1643082135956</v>
+        <v>213.9663608524852</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>157.1239864071459</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>105.7788661369296</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>140.5488181521908</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2324,10 +2326,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>200.9822846864552</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>19.89843046228975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.86626593013732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>58.87768236128002</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2558,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>85.88606453247121</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>277.7182841114483</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
         <v>157.7484451748619</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>148.0772376304396</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>148.5294911497004</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -2773,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>388.3430365919145</v>
       </c>
       <c r="E29" t="n">
-        <v>392.4208820523424</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>61.12053215227963</v>
+        <v>112.3157924738354</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3034,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>12.18473551758406</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>80.09751710528845</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>4.690691141440396</v>
+        <v>392.420882052342</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>81.56312795822622</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>54.68688746169084</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>286.38945661632</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>285.240888561548</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>70.01651234184534</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>113.6277268646017</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>190.8252397966748</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>286.7188551632969</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>42.43741174507633</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.733818067947911</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3961,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>353.8766502980249</v>
+        <v>383.5604440308334</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4065,16 +4067,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>57.11049760307122</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
         <v>195.3773027531635</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>98.41262563052176</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="D2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="E2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I2" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="L2" t="n">
-        <v>417.4634743327321</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M2" t="n">
-        <v>803.7147262854468</v>
+        <v>1444.151449705915</v>
       </c>
       <c r="N2" t="n">
-        <v>1189.965978238161</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="O2" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="P2" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Q2" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R2" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S2" t="n">
         <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>1425.330043794968</v>
+        <v>946.0630680013369</v>
       </c>
       <c r="V2" t="n">
-        <v>1203.159957083671</v>
+        <v>596.2255133378176</v>
       </c>
       <c r="W2" t="n">
-        <v>819.3996562188394</v>
+        <v>212.4652124729861</v>
       </c>
       <c r="X2" t="n">
-        <v>425.3059392994284</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>460.284638735585</v>
+        <v>363.6932106607767</v>
       </c>
       <c r="C3" t="n">
-        <v>326.2895674845307</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="D3" t="n">
-        <v>209.3924097039231</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="E3" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G3" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H3" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I3" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J3" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>372.2978437800934</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="L3" t="n">
-        <v>372.2978437800934</v>
+        <v>996.5275838480798</v>
       </c>
       <c r="M3" t="n">
-        <v>372.2978437800934</v>
+        <v>1144.800347685522</v>
       </c>
       <c r="N3" t="n">
-        <v>758.5490957328082</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="O3" t="n">
-        <v>1144.800347685523</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P3" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R3" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U3" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1149.54878113212</v>
+        <v>882.2169074334365</v>
       </c>
       <c r="W3" t="n">
-        <v>936.3156128684487</v>
+        <v>699.4211521580539</v>
       </c>
       <c r="X3" t="n">
-        <v>759.9896310073416</v>
+        <v>523.0951702969467</v>
       </c>
       <c r="Y3" t="n">
-        <v>600.5876713711716</v>
+        <v>363.6932106607767</v>
       </c>
     </row>
     <row r="4">
@@ -4486,7 +4488,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K4" t="n">
         <v>199.8470995074659</v>
@@ -4495,7 +4497,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4504,31 +4506,31 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P4" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q4" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="W4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="X4" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="Y4" t="n">
         <v>1308.245779075198</v>
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.517402081457</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C5" t="n">
-        <v>772.4236851620456</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D5" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E5" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F5" t="n">
         <v>31.21222238001735</v>
@@ -4568,13 +4570,13 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K5" t="n">
-        <v>361.3007174531585</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L5" t="n">
-        <v>747.5519694058733</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M5" t="n">
-        <v>747.5519694058733</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N5" t="n">
         <v>1133.803221358588</v>
@@ -4607,10 +4609,10 @@
         <v>1560.611119000868</v>
       </c>
       <c r="X5" t="n">
-        <v>1560.611119000868</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.611119000868</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.3447345587632</v>
+        <v>446.3395218182422</v>
       </c>
       <c r="C6" t="n">
-        <v>326.3496633077089</v>
+        <v>446.3395218182422</v>
       </c>
       <c r="D6" t="n">
-        <v>209.4525055271013</v>
+        <v>329.4423640376347</v>
       </c>
       <c r="E6" t="n">
-        <v>209.4525055271013</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="F6" t="n">
-        <v>209.4525055271013</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G6" t="n">
-        <v>102.46239284144</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H6" t="n">
-        <v>31.71517987715607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>372.2978437800934</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M6" t="n">
-        <v>758.5490957328082</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q6" t="n">
         <v>1531.051599638238</v>
@@ -4671,25 +4673,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S6" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U6" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V6" t="n">
-        <v>990.2069173191283</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W6" t="n">
-        <v>776.973749055457</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X6" t="n">
-        <v>600.6477671943499</v>
+        <v>586.6425544538289</v>
       </c>
       <c r="Y6" t="n">
-        <v>600.6477671943499</v>
+        <v>586.6425544538289</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.4894690395453</v>
+        <v>909.8318518552715</v>
       </c>
       <c r="C7" t="n">
-        <v>374.3960966012618</v>
+        <v>738.738479416988</v>
       </c>
       <c r="D7" t="n">
-        <v>214.9014519241718</v>
+        <v>579.2438347398979</v>
       </c>
       <c r="E7" t="n">
-        <v>53.99063679249127</v>
+        <v>418.3330196082174</v>
       </c>
       <c r="F7" t="n">
-        <v>31.21222238001735</v>
+        <v>253.7018937188087</v>
       </c>
       <c r="G7" t="n">
-        <v>31.21222238001735</v>
+        <v>86.45150264435208</v>
       </c>
       <c r="H7" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I7" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J7" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L7" t="n">
         <v>459.7441997875264</v>
@@ -4747,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W7" t="n">
-        <v>1196.268736185142</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X7" t="n">
-        <v>957.9248740448249</v>
+        <v>1322.267256860551</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.1891754335896</v>
+        <v>1097.531558249316</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>782.7571012166252</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="C8" t="n">
-        <v>425.3059392994284</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="D8" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="E8" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="F8" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I8" t="n">
         <v>31.21222238001735</v>
@@ -4829,25 +4831,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W8" t="n">
-        <v>1176.850818136036</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X8" t="n">
-        <v>1176.850818136036</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="Y8" t="n">
-        <v>782.7571012166252</v>
+        <v>946.0630680013373</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>601.0831844490563</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C9" t="n">
-        <v>467.088113198002</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D9" t="n">
-        <v>350.1909554173944</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E9" t="n">
-        <v>229.6981394097224</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L9" t="n">
-        <v>224.0250799426506</v>
+        <v>372.2978437800934</v>
       </c>
       <c r="M9" t="n">
-        <v>610.2763318953653</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N9" t="n">
-        <v>996.52758384808</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O9" t="n">
-        <v>1382.778835800795</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P9" t="n">
         <v>1531.051599638238</v>
@@ -4908,25 +4910,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T9" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U9" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V9" t="n">
-        <v>990.2069173191283</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W9" t="n">
-        <v>776.973749055457</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="X9" t="n">
-        <v>776.973749055457</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="Y9" t="n">
-        <v>617.571789419287</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>909.8318518552715</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="C10" t="n">
-        <v>738.738479416988</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="D10" t="n">
-        <v>579.2438347398979</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="E10" t="n">
-        <v>418.3330196082174</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7018937188087</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="G10" t="n">
-        <v>86.45150264435208</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4963,13 +4965,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N10" t="n">
         <v>1029.84703862227</v>
@@ -4984,28 +4986,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V10" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W10" t="n">
-        <v>1560.611119000868</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="X10" t="n">
-        <v>1322.267256860551</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.531558249316</v>
+        <v>297.1657234702345</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>425.3059392994284</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="C11" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="D11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="E11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
@@ -5051,13 +5053,13 @@
         <v>1057.900197753201</v>
       </c>
       <c r="N11" t="n">
-        <v>1444.151449705916</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O11" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P11" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q11" t="n">
         <v>1520.054473311303</v>
@@ -5081,10 +5083,10 @@
         <v>1560.611119000868</v>
       </c>
       <c r="X11" t="n">
-        <v>1213.49337313825</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="Y11" t="n">
-        <v>819.3996562188394</v>
+        <v>772.4236851620456</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>710.0430642665517</v>
+        <v>459.8417770616245</v>
       </c>
       <c r="C12" t="n">
-        <v>576.0479930154975</v>
+        <v>325.8467058105702</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="F12" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K12" t="n">
-        <v>224.0250799426506</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L12" t="n">
-        <v>610.2763318953653</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M12" t="n">
-        <v>794.9558830015396</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N12" t="n">
-        <v>794.9558830015396</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O12" t="n">
-        <v>1181.207134954254</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P12" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q12" t="n">
         <v>1531.051599638238</v>
@@ -5148,22 +5150,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.168257326907</v>
       </c>
       <c r="U12" t="n">
-        <v>1560.611119000868</v>
+        <v>1362.817446465126</v>
       </c>
       <c r="V12" t="n">
-        <v>1399.307206663087</v>
+        <v>1149.105919458159</v>
       </c>
       <c r="W12" t="n">
-        <v>1186.074038399415</v>
+        <v>935.8727511944883</v>
       </c>
       <c r="X12" t="n">
-        <v>1009.748056538308</v>
+        <v>759.5467693333811</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.3460969021384</v>
+        <v>600.1448096972111</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.546072681154</v>
+        <v>80.27859601324602</v>
       </c>
       <c r="C13" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D13" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E13" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F13" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G13" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I13" t="n">
         <v>31.21222238001735</v>
@@ -5221,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S13" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T13" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U13" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="X13" t="n">
-        <v>1532.981477686434</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="Y13" t="n">
-        <v>1308.245779075198</v>
+        <v>267.9783024072904</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5278,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K14" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L14" t="n">
-        <v>285.3976938477716</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="M14" t="n">
-        <v>285.3976938477716</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="N14" t="n">
-        <v>671.6489458004863</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="O14" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P14" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q14" t="n">
         <v>1520.054473311303</v>
@@ -5312,16 +5314,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V14" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W14" t="n">
-        <v>1560.611119000868</v>
+        <v>827.0132634725169</v>
       </c>
       <c r="X14" t="n">
-        <v>1213.49337313825</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="Y14" t="n">
-        <v>819.3996562188394</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.9573345651461</v>
+        <v>477.2687567837004</v>
       </c>
       <c r="C15" t="n">
-        <v>520.9622633140918</v>
+        <v>343.2736855326461</v>
       </c>
       <c r="D15" t="n">
-        <v>404.0651055334843</v>
+        <v>226.3765277520385</v>
       </c>
       <c r="E15" t="n">
-        <v>283.5722895258123</v>
+        <v>105.8837117443665</v>
       </c>
       <c r="F15" t="n">
-        <v>174.6124097083168</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G15" t="n">
-        <v>67.62229702265554</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H15" t="n">
         <v>31.21222238001735</v>
@@ -5358,25 +5360,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M15" t="n">
-        <v>758.5490957328082</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N15" t="n">
-        <v>1144.800347685523</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q15" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R15" t="n">
         <v>1560.611119000868</v>
@@ -5391,16 +5393,16 @@
         <v>1203.918444326094</v>
       </c>
       <c r="V15" t="n">
-        <v>1203.918444326094</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W15" t="n">
-        <v>990.6852760624232</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X15" t="n">
-        <v>814.3592942013161</v>
+        <v>776.973749055457</v>
       </c>
       <c r="Y15" t="n">
-        <v>654.9573345651461</v>
+        <v>617.571789419287</v>
       </c>
     </row>
     <row r="16">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.82582963369487</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>31.21222238001735</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>401.8573631427234</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>788.1086150954382</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>1174.359867048153</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N17" t="n">
-        <v>1560.611119000868</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O17" t="n">
-        <v>1560.611119000868</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>1560.611119000868</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U17" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="V17" t="n">
-        <v>1210.773564337348</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="W17" t="n">
-        <v>827.0132634725169</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X17" t="n">
-        <v>432.9195465531059</v>
+        <v>946.3630235251826</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.82582963369487</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460.3447345587632</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C18" t="n">
-        <v>326.3496633077089</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D18" t="n">
-        <v>209.4525055271013</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E18" t="n">
-        <v>88.9596895194293</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F18" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G18" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H18" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>417.4634743327321</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5490957328082</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M18" t="n">
-        <v>1144.800347685523</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N18" t="n">
-        <v>1531.051599638238</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O18" t="n">
-        <v>1531.051599638238</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S18" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T18" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V18" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>600.6477671943499</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.21222238001735</v>
+        <v>847.5024989606081</v>
       </c>
       <c r="C19" t="n">
-        <v>31.21222238001735</v>
+        <v>676.4091265223246</v>
       </c>
       <c r="D19" t="n">
-        <v>31.21222238001735</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E19" t="n">
-        <v>31.21222238001735</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F19" t="n">
-        <v>31.21222238001735</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G19" t="n">
-        <v>31.21222238001735</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M19" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P19" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U19" t="n">
-        <v>1192.540253222391</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V19" t="n">
-        <v>961.0611540167392</v>
+        <v>1072.238197571844</v>
       </c>
       <c r="W19" t="n">
-        <v>681.9914895256136</v>
+        <v>1072.238197571844</v>
       </c>
       <c r="X19" t="n">
-        <v>443.647627385297</v>
+        <v>1072.238197571844</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.9119287740617</v>
+        <v>847.5024989606081</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>696.9525363802143</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="C20" t="n">
-        <v>286.8279456934844</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D20" t="n">
-        <v>286.8279456934844</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E20" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F20" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G20" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L20" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N20" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O20" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
         <v>2047.697635790537</v>
@@ -5783,19 +5785,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>1831.193789739612</v>
+        <v>1981.40694194785</v>
       </c>
       <c r="V20" t="n">
-        <v>1481.356235076093</v>
+        <v>1631.56938728433</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.595934211262</v>
+        <v>1247.809086419499</v>
       </c>
       <c r="X20" t="n">
-        <v>696.9525363802143</v>
+        <v>847.1656885884514</v>
       </c>
       <c r="Y20" t="n">
-        <v>696.9525363802143</v>
+        <v>446.2290155365415</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G21" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L21" t="n">
-        <v>558.6080202959273</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M21" t="n">
-        <v>1075.450954962253</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N21" t="n">
-        <v>1592.293889628578</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5862,19 +5864,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="C22" t="n">
         <v>960.0055634924552</v>
@@ -5899,19 +5901,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H22" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5935,25 +5937,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>1101.974066676486</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1473.706230480572</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C23" t="n">
-        <v>1063.581639793842</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D23" t="n">
-        <v>659.1177098869025</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E23" t="n">
-        <v>244.7774944037992</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P23" t="n">
         <v>2047.697635790537</v>
@@ -6014,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1473.706230480572</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X23" t="n">
-        <v>1473.706230480572</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y23" t="n">
-        <v>1473.706230480572</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6062,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962253</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
         <v>2088.254281480102</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.1101737307487</v>
+        <v>729.9487572975349</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1101737307487</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D25" t="n">
-        <v>480.6155290536587</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E25" t="n">
-        <v>319.7047139219782</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F25" t="n">
-        <v>319.7047139219782</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L25" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M25" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O25" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P25" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T25" t="n">
-        <v>1331.615243227154</v>
+        <v>2028.781875054566</v>
       </c>
       <c r="U25" t="n">
-        <v>1331.615243227154</v>
+        <v>1745.983727600691</v>
       </c>
       <c r="V25" t="n">
-        <v>1331.615243227154</v>
+        <v>1472.097982540213</v>
       </c>
       <c r="W25" t="n">
-        <v>1052.545578736028</v>
+        <v>1193.028318049087</v>
       </c>
       <c r="X25" t="n">
-        <v>1052.545578736028</v>
+        <v>954.6844559087702</v>
       </c>
       <c r="Y25" t="n">
-        <v>827.809880124793</v>
+        <v>729.9487572975349</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.76508562960205</v>
+        <v>867.259427582854</v>
       </c>
       <c r="C26" t="n">
-        <v>41.76508562960205</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D26" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L26" t="n">
-        <v>295.9505570973564</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M26" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N26" t="n">
-        <v>733.4074053521598</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O26" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>1473.706230480572</v>
+        <v>2001.500680942252</v>
       </c>
       <c r="V26" t="n">
-        <v>1123.868675817053</v>
+        <v>1651.663126278733</v>
       </c>
       <c r="W26" t="n">
-        <v>843.3451565125595</v>
+        <v>1267.902825413901</v>
       </c>
       <c r="X26" t="n">
-        <v>442.7017586815119</v>
+        <v>867.259427582854</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.76508562960205</v>
+        <v>867.259427582854</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L27" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M27" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N27" t="n">
         <v>1571.411346813777</v>
@@ -6336,7 +6338,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V27" t="n">
         <v>1409.860069912671</v>
@@ -6348,7 +6350,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>793.4728740876129</v>
+        <v>1109.57853079593</v>
       </c>
       <c r="C28" t="n">
-        <v>622.3795016493294</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D28" t="n">
-        <v>622.3795016493294</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E28" t="n">
-        <v>472.349712609228</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F28" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6421,13 +6423,13 @@
         <v>1297.278237189974</v>
       </c>
       <c r="W28" t="n">
-        <v>1018.208572698848</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.208572698848</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.4728740876129</v>
+        <v>1297.278237189974</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.033101815613</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.908511128883</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D29" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E29" t="n">
         <v>871.5237817830823</v>
@@ -6452,28 +6454,28 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1688317915616</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L29" t="n">
         <v>1014.011766457887</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.011766457887</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O29" t="n">
         <v>2047.697635790537</v>
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K30" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L30" t="n">
-        <v>1192.007362767164</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M30" t="n">
-        <v>1192.007362767164</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N30" t="n">
-        <v>1192.007362767164</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O30" t="n">
-        <v>1192.007362767164</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.5395825927103</v>
+        <v>1073.455858920572</v>
       </c>
       <c r="C31" t="n">
-        <v>526.8016713277814</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D31" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6643,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.223475107064</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U31" t="n">
-        <v>862.4253276531883</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V31" t="n">
-        <v>588.5395825927103</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W31" t="n">
-        <v>588.5395825927103</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X31" t="n">
-        <v>588.5395825927103</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y31" t="n">
-        <v>588.5395825927103</v>
+        <v>1261.155565314616</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.033101815613</v>
+        <v>1265.081890330439</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.908511128883</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D32" t="n">
-        <v>1267.908511128883</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E32" t="n">
-        <v>853.5682956457795</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F32" t="n">
-        <v>432.537883599467</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M32" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N32" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O32" t="n">
         <v>2088.254281480102</v>
@@ -6734,16 +6736,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>2075.946467825976</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>2075.946467825976</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1675.303069994929</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>1675.303069994929</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L33" t="n">
-        <v>1192.007362767164</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M33" t="n">
-        <v>1192.007362767164</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N33" t="n">
-        <v>1192.007362767164</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O33" t="n">
-        <v>1192.007362767164</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6847,19 +6849,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H34" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6892,16 +6894,16 @@
         <v>1485.891263925851</v>
       </c>
       <c r="V34" t="n">
-        <v>1485.891263925851</v>
+        <v>1212.005518865373</v>
       </c>
       <c r="W34" t="n">
-        <v>1485.891263925851</v>
+        <v>1212.005518865373</v>
       </c>
       <c r="X34" t="n">
-        <v>1485.891263925851</v>
+        <v>1212.005518865373</v>
       </c>
       <c r="Y34" t="n">
-        <v>1318.798642324783</v>
+        <v>1212.005518865373</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>357.4116548619248</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C35" t="n">
-        <v>357.4116548619248</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D35" t="n">
-        <v>352.673583001884</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E35" t="n">
-        <v>352.673583001884</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F35" t="n">
-        <v>352.673583001884</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G35" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M35" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N35" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O35" t="n">
         <v>2047.697635790537</v>
@@ -6962,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1569.212905409372</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>1168.569507578324</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y35" t="n">
-        <v>767.6328345264143</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>508.1659581184966</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N36" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O36" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
         <v>2058.694762117472</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>865.1454348405214</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C37" t="n">
-        <v>694.0520624022379</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D37" t="n">
-        <v>534.5574177251478</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E37" t="n">
-        <v>373.6466025934674</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F37" t="n">
-        <v>209.0154767040586</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L37" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M37" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N37" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O37" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P37" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q37" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S37" t="n">
-        <v>1571.163982250452</v>
+        <v>2005.8672835425</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1766.318544519202</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1483.520397065326</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>1209.634652004848</v>
       </c>
       <c r="W37" t="n">
-        <v>1515.924701986118</v>
+        <v>1209.634652004848</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.580839845801</v>
+        <v>971.2907898645311</v>
       </c>
       <c r="Y37" t="n">
-        <v>1052.845141234566</v>
+        <v>746.5550912532958</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>451.8896763163319</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
@@ -7181,16 +7183,16 @@
         <v>295.9505570973564</v>
       </c>
       <c r="M38" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N38" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O38" t="n">
-        <v>1846.479361096332</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q38" t="n">
         <v>2088.254281480102</v>
@@ -7202,22 +7204,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U38" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1952.973206274203</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W38" t="n">
-        <v>1663.690926863779</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X38" t="n">
-        <v>1263.047529032731</v>
+        <v>451.9862652940915</v>
       </c>
       <c r="Y38" t="n">
-        <v>862.1108559808214</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
@@ -7257,19 +7259,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>690.384199457534</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M39" t="n">
-        <v>690.384199457534</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N39" t="n">
-        <v>1054.568412147452</v>
+        <v>704.723947463468</v>
       </c>
       <c r="O39" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P39" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>589.7444594756917</v>
+        <v>871.2346686556129</v>
       </c>
       <c r="C40" t="n">
-        <v>589.7444594756917</v>
+        <v>871.2346686556129</v>
       </c>
       <c r="D40" t="n">
-        <v>589.7444594756917</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E40" t="n">
-        <v>589.7444594756917</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F40" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H40" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7357,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>1101.974066676486</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V40" t="n">
-        <v>828.0883216160082</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W40" t="n">
-        <v>828.0883216160082</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X40" t="n">
-        <v>589.7444594756917</v>
+        <v>1058.934375049657</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.7444594756917</v>
+        <v>1058.934375049657</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C41" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D41" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E41" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L41" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M41" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N41" t="n">
-        <v>1329.636426430007</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O41" t="n">
-        <v>1329.636426430007</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7439,22 +7441,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.766722221062</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U41" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="V41" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="W41" t="n">
-        <v>740.1083749522213</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X41" t="n">
-        <v>450.4933697367699</v>
+        <v>946.3630235251826</v>
       </c>
       <c r="Y41" t="n">
-        <v>450.4933697367699</v>
+        <v>545.4263504732727</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>187.8810127971431</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>187.8810127971431</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>704.7239474634683</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>704.7239474634683</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129794</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129794</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.7185867198193</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C43" t="n">
-        <v>307.7185867198193</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="D43" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E43" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F43" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7591,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1569.412650868686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1383.020882748597</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1143.472143725299</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U43" t="n">
-        <v>860.673996271423</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V43" t="n">
-        <v>586.788251210945</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W43" t="n">
-        <v>307.7185867198193</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X43" t="n">
-        <v>307.7185867198193</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.7185867198193</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>782.7571012166252</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="C44" t="n">
-        <v>782.7571012166252</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="D44" t="n">
-        <v>782.7571012166252</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="E44" t="n">
-        <v>782.7571012166252</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="F44" t="n">
-        <v>425.3059392994284</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M44" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N44" t="n">
-        <v>426.3909626105813</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="O44" t="n">
-        <v>812.642214563296</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W44" t="n">
-        <v>1176.850818136036</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X44" t="n">
-        <v>782.7571012166252</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="Y44" t="n">
-        <v>782.7571012166252</v>
+        <v>740.1083749522209</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>402.5972674193512</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C45" t="n">
-        <v>268.6021961682969</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D45" t="n">
-        <v>151.7050383876894</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E45" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F45" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>417.4634743327321</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M45" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N45" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O45" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1502.923747684634</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1305.572936822853</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1091.861409815886</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>878.6282415522151</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>702.3022596911078</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>542.9003000549378</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="V46" t="n">
-        <v>492.7140010185257</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="W46" t="n">
-        <v>213.6443365274001</v>
+        <v>1012.951985451324</v>
       </c>
       <c r="X46" t="n">
-        <v>31.21222238001735</v>
+        <v>774.6081233110078</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>675.2014307549252</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>479.2891694234339</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>210.5483203474799</v>
       </c>
       <c r="O2" t="n">
-        <v>102.2074405529036</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>205.5962513072849</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>207.3347522610868</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439669</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O3" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8146,7 +8148,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>335.3881832803897</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
         <v>318.2573327462026</v>
@@ -8216,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>422.5591119693194</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N5" t="n">
-        <v>483.0650705068362</v>
+        <v>426.3350130527215</v>
       </c>
       <c r="O5" t="n">
         <v>483.342555376</v>
@@ -8292,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>400.6454545179966</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N6" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8529,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>400.6454545179966</v>
       </c>
       <c r="M9" t="n">
         <v>447.7170634886343</v>
@@ -8544,10 +8546,10 @@
         <v>443.3461731439669</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>204.0301035254733</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8611,7 +8613,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K10" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L10" t="n">
         <v>317.1506174091142</v>
@@ -8699,16 +8701,16 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N11" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513764</v>
       </c>
       <c r="O11" t="n">
-        <v>169.8594964393052</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O12" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>398.7905657099514</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>428.908120358947</v>
       </c>
       <c r="M14" t="n">
         <v>93.29022445704545</v>
@@ -8942,10 +8944,10 @@
         <v>483.342555376</v>
       </c>
       <c r="P14" t="n">
-        <v>236.0668064756412</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9006,19 +9008,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
-        <v>207.334752261087</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>443.3461731439669</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9027,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>463.5254207466576</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>483.0650705068362</v>
+        <v>493.821586277062</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>400.6454545179966</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M18" t="n">
-        <v>447.7170634886343</v>
+        <v>98.1240166537967</v>
       </c>
       <c r="N18" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L20" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>553.2940084590247</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>555.2297277821215</v>
+        <v>330.6111652313504</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764445</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9714,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P24" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M26" t="n">
-        <v>535.1658287548267</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>554.1634861730677</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>292.3871721926164</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>337.4068669225205</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>98.1240166537967</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>298.736180582244</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10665,25 +10667,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>332.4660540393959</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10829,19 +10831,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544002</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>337.8664545776218</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>87.31214281472352</v>
@@ -10905,22 +10907,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>70.59911775623691</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>421.0562344946772</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11060,28 +11062,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>298.7361805822439</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>198.9610844237788</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11306,19 +11308,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>235.3297339513765</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>334.2508956958894</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>437.4199871126749</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11391,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22565,7 +22567,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>126.3907932726996</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.484184102520089</v>
+        <v>302.6847487167955</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>118.8494547903744</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -22644,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22686,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>30.13303885840577</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22771,7 +22773,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1745055375993</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="5">
@@ -22787,13 +22789,13 @@
         <v>15.87056502964566</v>
       </c>
       <c r="D5" t="n">
-        <v>56.77272220387903</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>53.28073791739979</v>
       </c>
     </row>
     <row r="6">
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -22881,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.04317754379489</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22926,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>93.04494917371866</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -22951,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>140.4341843621655</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>93.42449318090652</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -23002,7 +23004,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23021,10 +23023,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>52.1466944818377</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D8" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -23033,13 +23035,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>282.379101305863</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.5762833887023</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23109,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23160,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>159.0076286890867</v>
       </c>
       <c r="X9" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>93.42449318090654</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>82.68617307340608</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>15.87056502964566</v>
+        <v>147.8650214319691</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23276,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>52.99039544874586</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y11" t="n">
         <v>6.774526571173908</v>
@@ -23343,10 +23345,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23388,13 +23390,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>157.7484451748619</v>
+        <v>157.3100121176409</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.8067288170043</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>15.87056502964566</v>
@@ -23552,16 +23554,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>52.99039544874586</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.774526571173908</v>
+        <v>389.3898351402501</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23583,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>33.94550654861483</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>33.9937669384293</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
         <v>20.54110546596223</v>
@@ -23631,13 +23633,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>398.4858735987218</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.484184102520089</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.774526571173908</v>
+        <v>313.5176604524732</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>50.70028855130263</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>41.98257939627769</v>
+        <v>57.18052675738804</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,13 +23971,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>253.0728269211263</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -23987,7 +23989,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>148.7110206861554</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.83362056170989</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24190,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>215.8378232393941</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>360.0242673938934</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>153.7116212335747</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>178.2755692717849</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24446,13 +24448,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>168.6038222906138</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>102.2044137447348</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>21.30520108346107</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>10.7722158306633</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>12.07625401595556</v>
       </c>
       <c r="E29" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>108.261906561621</v>
+        <v>57.0666462400653</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24904,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24974,13 +24976,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>334.1544435993001</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.7251922248155</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25141,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>395.7285994664296</v>
+        <v>7.998408555528044</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -25214,13 +25216,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25360,19 +25362,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>102.9647224806626</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>221.5920803845235</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25442,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>93.53324123986306</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>111.3960752911889</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>87.88318588847373</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>49.35708776591298</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>215.2937280711698</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25640,10 +25642,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25682,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>109.9181086894401</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>115.4622864852427</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25801,10 +25803,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.68617307340644</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>62.94345762782444</v>
+        <v>33.25966389501588</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>100.6379475717906</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>124.0757159946012</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477656.8429905971</v>
+        <v>477656.8429905969</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477656.842990597</v>
+        <v>477656.8429905971</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477656.8429905971</v>
+        <v>571496.6015712839</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>571496.6015712839</v>
+        <v>571496.601571284</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>571496.601571284</v>
+        <v>571496.6015712839</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>571496.6015712841</v>
+        <v>571496.6015712838</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>571496.6015712841</v>
+        <v>571496.601571284</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571496.6015712841</v>
+        <v>571496.6015712839</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>571496.601571284</v>
+        <v>571496.6015712839</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477656.842990597</v>
+        <v>571496.6015712839</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119273.94826172</v>
+        <v>119273.9482617199</v>
       </c>
       <c r="C2" t="n">
         <v>119273.94826172</v>
@@ -26320,13 +26322,13 @@
         <v>119273.94826172</v>
       </c>
       <c r="E2" t="n">
-        <v>119273.94826172</v>
+        <v>119273.9482617199</v>
       </c>
       <c r="F2" t="n">
         <v>119273.94826172</v>
       </c>
       <c r="G2" t="n">
-        <v>119273.9482617199</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="H2" t="n">
         <v>142694.2606395789</v>
@@ -26335,10 +26337,10 @@
         <v>142694.2606395788</v>
       </c>
       <c r="J2" t="n">
+        <v>142694.2606395788</v>
+      </c>
+      <c r="K2" t="n">
         <v>142694.2606395789</v>
-      </c>
-      <c r="K2" t="n">
-        <v>142694.2606395788</v>
       </c>
       <c r="L2" t="n">
         <v>142694.2606395789</v>
@@ -26347,13 +26349,13 @@
         <v>142694.2606395789</v>
       </c>
       <c r="N2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="O2" t="n">
         <v>142694.2606395789</v>
       </c>
       <c r="P2" t="n">
-        <v>119273.94826172</v>
+        <v>142694.2606395788</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36154.76904703023</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102081.1339049658</v>
+        <v>102081.1339049657</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>31744.46367344755</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>40657.35427172509</v>
       </c>
       <c r="D4" t="n">
+        <v>40657.35427172509</v>
+      </c>
+      <c r="E4" t="n">
         <v>40657.3542717251</v>
       </c>
-      <c r="E4" t="n">
-        <v>40657.35427172509</v>
-      </c>
       <c r="F4" t="n">
-        <v>40657.35427172509</v>
+        <v>40657.3542717251</v>
       </c>
       <c r="G4" t="n">
-        <v>40657.35427172508</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="H4" t="n">
         <v>48718.21749193841</v>
@@ -26442,7 +26444,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="K4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="L4" t="n">
         <v>48718.21749193841</v>
@@ -26457,7 +26459,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="P4" t="n">
-        <v>40657.3542717251</v>
+        <v>48718.21749193841</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57348.88900881319</v>
+        <v>57348.88900881317</v>
       </c>
       <c r="C5" t="n">
         <v>57348.88900881319</v>
@@ -26482,7 +26484,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="G5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>21267.70498118171</v>
       </c>
       <c r="D6" t="n">
-        <v>21267.70498118171</v>
+        <v>21267.7049811817</v>
       </c>
       <c r="E6" t="n">
-        <v>54895.30498118169</v>
+        <v>54895.30498118166</v>
       </c>
       <c r="F6" t="n">
-        <v>54895.30498118172</v>
+        <v>54895.3049811817</v>
       </c>
       <c r="G6" t="n">
-        <v>54895.30498118167</v>
+        <v>26079.80902211265</v>
       </c>
       <c r="H6" t="n">
-        <v>26643.85956280296</v>
+        <v>62234.57806914297</v>
       </c>
       <c r="I6" t="n">
-        <v>62234.57806914287</v>
+        <v>62234.57806914288</v>
       </c>
       <c r="J6" t="n">
-        <v>-39846.55583582286</v>
+        <v>-39846.55583582285</v>
       </c>
       <c r="K6" t="n">
-        <v>62234.57806914287</v>
+        <v>62234.57806914291</v>
       </c>
       <c r="L6" t="n">
-        <v>62234.5780691429</v>
+        <v>62234.57806914291</v>
       </c>
       <c r="M6" t="n">
-        <v>62234.5780691429</v>
+        <v>62234.57806914294</v>
       </c>
       <c r="N6" t="n">
-        <v>62234.5780691429</v>
+        <v>62234.57806914288</v>
       </c>
       <c r="O6" t="n">
-        <v>62234.5780691429</v>
+        <v>30490.11439569536</v>
       </c>
       <c r="P6" t="n">
-        <v>54895.3049811817</v>
+        <v>62234.57806914288</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C4" t="n">
         <v>390.1527797502169</v>
@@ -26802,34 +26804,34 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L2" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M2" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N2" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908605</v>
       </c>
       <c r="O2" t="n">
-        <v>9.017664927120512</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>149.7704685226695</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>149.7704685226693</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>283.6755377719703</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
         <v>262.1824346732062</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N5" t="n">
-        <v>390.1527797502169</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="O5" t="n">
         <v>390.1527797502169</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N6" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>344.5309307071475</v>
       </c>
       <c r="M9" t="n">
         <v>390.1527797502169</v>
@@ -35264,10 +35266,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="P9" t="n">
-        <v>149.7704685226696</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K10" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L10" t="n">
         <v>262.5223235152127</v>
@@ -35419,16 +35421,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N11" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="O11" t="n">
-        <v>76.66972081352203</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M12" t="n">
-        <v>186.5450011173479</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>344.5309307071477</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35662,10 +35664,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P14" t="n">
-        <v>142.4174431947571</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35726,19 +35728,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1527797502169</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>344.5309307071475</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M18" t="n">
-        <v>390.1527797502169</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="N18" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>500.9700927793177</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M26" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>203.2507825193993</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>203.2507825193992</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>276.3515302285468</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37549,19 +37551,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977809</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>14.48459394538786</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>367.8628411009272</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>147.5918456237788</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>142.4174431947572</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>381.3054633018259</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196446.5367484681</v>
+        <v>189989.3614795874</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12617883.90382515</v>
+        <v>12617883.90382514</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10943609.97017262</v>
+        <v>10943609.97017261</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>93.95221513594151</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>343.6465684039911</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>7.965018085886386</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -800,7 +800,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>180.9677977226287</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
         <v>174.5627220424961</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>123.2148172775828</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,11 +898,11 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>209.7183039501509</v>
+      </c>
+      <c r="Y5" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>343.646568403991</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1040,10 +1040,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>81.51777286877746</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1071,7 +1071,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>54.68688746169138</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>42.97052747166413</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G8" t="n">
-        <v>122.2618999602331</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>133.892231085415</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1274,13 +1274,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>52.0932078919478</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>85.3423812989805</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1353,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>193.5927947728083</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>110.3102554413044</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>258.1583233478934</v>
+        <v>379.8866644877579</v>
       </c>
       <c r="D11" t="n">
         <v>390.1527797502169</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>390.1527797502169</v>
@@ -1451,25 +1451,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4384330572209728</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
         <v>195.3773027531635</v>
@@ -1511,13 +1511,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>59.68424175667442</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,19 +1530,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>48.57570989689638</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>33.143851653317</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>390.1527797502169</v>
+        <v>207.7501450163307</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.537471181140739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>77.91508834140009</v>
       </c>
       <c r="C15" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>73.92477447070563</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1751,7 +1751,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>29.06736062834969</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>175.9766892360284</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>83.40964586891759</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>213.9663608524852</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>105.7788661369296</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>357.3641740191724</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>140.5488181521908</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>119.5896293143205</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2256,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>122.2405262537684</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>19.89843046228975</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>119.5896293143205</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>58.87768236128002</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>210.8770041692172</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>85.88606453247121</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2654,7 +2654,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>148.0772376304396</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>388.3430365919145</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>90.87440973656685</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.3157924738354</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>346.6630339611676</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>12.18473551758406</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.09751710528845</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>135.9638897606631</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>392.420882052342</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>112.6530717879138</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>81.56312795822622</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3486,13 +3486,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>193.8488621112849</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>99.09322231237861</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>285.240888561548</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>70.01651234184534</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>190.8252397966748</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>193.677505826948</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>70.36042284486118</v>
       </c>
       <c r="D43" t="n">
-        <v>42.43741174507633</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>383.5604440308334</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>120.8517446319372</v>
       </c>
     </row>
     <row r="45">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>50.61039643672363</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.41262563052176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117.5639850629442</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C2" t="n">
-        <v>117.5639850629442</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I2" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>671.6489458004862</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M2" t="n">
-        <v>1444.151449705915</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N2" t="n">
-        <v>1560.611119000867</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O2" t="n">
-        <v>1560.611119000867</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P2" t="n">
-        <v>1560.611119000867</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q2" t="n">
-        <v>1560.611119000867</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R2" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>946.0630680013369</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V2" t="n">
-        <v>596.2255133378176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W2" t="n">
-        <v>212.4652124729861</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X2" t="n">
-        <v>117.5639850629442</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y2" t="n">
-        <v>117.5639850629442</v>
+        <v>1213.49337313825</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>363.6932106607767</v>
+        <v>492.5976614854803</v>
       </c>
       <c r="C3" t="n">
-        <v>229.6981394097224</v>
+        <v>492.5976614854803</v>
       </c>
       <c r="D3" t="n">
-        <v>229.6981394097224</v>
+        <v>375.7005037048727</v>
       </c>
       <c r="E3" t="n">
-        <v>229.6981394097224</v>
+        <v>255.2076876972007</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>146.2478078797053</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>39.257695194044</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I3" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>610.2763318953652</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>996.5275838480798</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M3" t="n">
-        <v>1144.800347685522</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="O3" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="P3" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R3" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302184</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U3" t="n">
-        <v>1095.928434440403</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V3" t="n">
-        <v>882.2169074334365</v>
+        <v>1041.558771246429</v>
       </c>
       <c r="W3" t="n">
-        <v>699.4211521580539</v>
+        <v>828.3256029827575</v>
       </c>
       <c r="X3" t="n">
-        <v>523.0951702969467</v>
+        <v>651.9996211216503</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.6932106607767</v>
+        <v>492.5976614854803</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.546072681154</v>
+        <v>155.6716337715151</v>
       </c>
       <c r="C4" t="n">
-        <v>949.4527002428704</v>
+        <v>155.6716337715151</v>
       </c>
       <c r="D4" t="n">
-        <v>789.9580555657803</v>
+        <v>155.6716337715151</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>155.6716337715151</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L4" t="n">
         <v>459.7441997875264</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4506,34 +4506,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P4" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q4" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1475.338400676267</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T4" t="n">
-        <v>1475.338400676267</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U4" t="n">
-        <v>1475.338400676267</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V4" t="n">
-        <v>1475.338400676267</v>
+        <v>860.7848667970018</v>
       </c>
       <c r="W4" t="n">
-        <v>1475.338400676267</v>
+        <v>581.7152023058761</v>
       </c>
       <c r="X4" t="n">
-        <v>1475.338400676267</v>
+        <v>343.3713401655595</v>
       </c>
       <c r="Y4" t="n">
-        <v>1308.245779075198</v>
+        <v>343.3713401655595</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>425.3059392994284</v>
       </c>
       <c r="C5" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D5" t="n">
         <v>31.21222238001735</v>
@@ -4573,43 +4573,43 @@
         <v>31.21222238001735</v>
       </c>
       <c r="L5" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M5" t="n">
-        <v>803.7147262854468</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="N5" t="n">
-        <v>1133.803221358588</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O5" t="n">
-        <v>1520.054473311303</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P5" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X5" t="n">
-        <v>1166.517402081457</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="Y5" t="n">
         <v>819.3996562188394</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.3395218182422</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C6" t="n">
-        <v>446.3395218182422</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D6" t="n">
-        <v>329.4423640376347</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E6" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F6" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G6" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H6" t="n">
         <v>31.21222238001735</v>
@@ -4649,13 +4649,13 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>610.2763318953653</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L6" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M6" t="n">
-        <v>794.9558830015396</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N6" t="n">
         <v>1181.207134954254</v>
@@ -4673,25 +4673,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S6" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T6" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U6" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V6" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W6" t="n">
-        <v>668.9837391697657</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X6" t="n">
-        <v>586.6425544538289</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y6" t="n">
-        <v>586.6425544538289</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>909.8318518552715</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="C7" t="n">
-        <v>738.738479416988</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D7" t="n">
-        <v>579.2438347398979</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E7" t="n">
-        <v>418.3330196082174</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7018937188087</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G7" t="n">
-        <v>86.45150264435208</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H7" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J7" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L7" t="n">
         <v>459.7441997875264</v>
@@ -4749,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="X7" t="n">
-        <v>1322.267256860551</v>
+        <v>1245.542059352476</v>
       </c>
       <c r="Y7" t="n">
-        <v>1097.531558249316</v>
+        <v>1020.806360741241</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>946.0630680013373</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C8" t="n">
-        <v>551.9693510819263</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D8" t="n">
-        <v>551.9693510819263</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E8" t="n">
-        <v>551.9693510819263</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F8" t="n">
-        <v>551.9693510819263</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G8" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H8" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I8" t="n">
         <v>31.21222238001735</v>
@@ -4810,46 +4810,46 @@
         <v>31.21222238001735</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M8" t="n">
-        <v>803.7147262854468</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="N8" t="n">
-        <v>803.7147262854468</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O8" t="n">
-        <v>1189.965978238161</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P8" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T8" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U8" t="n">
-        <v>946.0630680013373</v>
+        <v>1203.159957083671</v>
       </c>
       <c r="V8" t="n">
-        <v>946.0630680013373</v>
+        <v>1203.159957083671</v>
       </c>
       <c r="W8" t="n">
-        <v>946.0630680013373</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X8" t="n">
-        <v>946.0630680013373</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="Y8" t="n">
-        <v>946.0630680013373</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.2944728867919</v>
+        <v>391.0643312291746</v>
       </c>
       <c r="C9" t="n">
-        <v>555.2994016357376</v>
+        <v>257.0692599781203</v>
       </c>
       <c r="D9" t="n">
-        <v>438.40224385513</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="E9" t="n">
-        <v>317.909427847458</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F9" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G9" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H9" t="n">
         <v>31.21222238001735</v>
@@ -4883,52 +4883,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>372.2978437800934</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M9" t="n">
-        <v>758.5490957328082</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N9" t="n">
-        <v>1144.800347685523</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O9" t="n">
-        <v>1144.800347685523</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V9" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W9" t="n">
-        <v>829.5975055223786</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X9" t="n">
-        <v>829.5975055223786</v>
+        <v>690.7693235009313</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.5975055223786</v>
+        <v>531.3673638647613</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>297.1657234702345</v>
+        <v>202.3055948183008</v>
       </c>
       <c r="C10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4986,28 +4986,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V10" t="n">
-        <v>492.7140010185257</v>
+        <v>817.5354583664239</v>
       </c>
       <c r="W10" t="n">
-        <v>297.1657234702345</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="X10" t="n">
-        <v>297.1657234702345</v>
+        <v>427.0412934295362</v>
       </c>
       <c r="Y10" t="n">
-        <v>297.1657234702345</v>
+        <v>202.3055948183008</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>772.4236851620456</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="C11" t="n">
-        <v>511.6577019823552</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
@@ -5044,19 +5044,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K11" t="n">
-        <v>671.6489458004863</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="L11" t="n">
-        <v>671.6489458004863</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M11" t="n">
-        <v>1057.900197753201</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N11" t="n">
-        <v>1198.893466516011</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O11" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P11" t="n">
         <v>1198.893466516011</v>
@@ -5068,25 +5068,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T11" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U11" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V11" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W11" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X11" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y11" t="n">
-        <v>772.4236851620456</v>
+        <v>809.0298428224162</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>459.8417770616245</v>
+        <v>505.3007800512135</v>
       </c>
       <c r="C12" t="n">
-        <v>325.8467058105702</v>
+        <v>505.3007800512135</v>
       </c>
       <c r="D12" t="n">
-        <v>208.9495480299626</v>
+        <v>388.4036222706059</v>
       </c>
       <c r="E12" t="n">
-        <v>208.9495480299626</v>
+        <v>267.9108062629339</v>
       </c>
       <c r="F12" t="n">
-        <v>208.9495480299626</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G12" t="n">
-        <v>101.9594353443013</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H12" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K12" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L12" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N12" t="n">
-        <v>803.7147262854468</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O12" t="n">
-        <v>1189.965978238161</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P12" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q12" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R12" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S12" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.168257326907</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U12" t="n">
-        <v>1362.817446465126</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.105919458159</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W12" t="n">
-        <v>935.8727511944883</v>
+        <v>821.9297945479072</v>
       </c>
       <c r="X12" t="n">
-        <v>759.5467693333811</v>
+        <v>645.6038126868001</v>
       </c>
       <c r="Y12" t="n">
-        <v>600.1448096972111</v>
+        <v>645.6038126868001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.27859601324602</v>
+        <v>723.4400837351815</v>
       </c>
       <c r="C13" t="n">
-        <v>31.21222238001735</v>
+        <v>552.346711296898</v>
       </c>
       <c r="D13" t="n">
-        <v>31.21222238001735</v>
+        <v>392.852066619808</v>
       </c>
       <c r="E13" t="n">
-        <v>31.21222238001735</v>
+        <v>231.9412514881275</v>
       </c>
       <c r="F13" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G13" t="n">
         <v>31.21222238001735</v>
@@ -5223,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S13" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T13" t="n">
-        <v>1049.39789353288</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U13" t="n">
-        <v>766.5997460790038</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V13" t="n">
-        <v>492.7140010185257</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="W13" t="n">
-        <v>492.7140010185257</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="X13" t="n">
-        <v>492.7140010185257</v>
+        <v>1135.875488740461</v>
       </c>
       <c r="Y13" t="n">
-        <v>267.9783024072904</v>
+        <v>911.1397901292258</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C14" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D14" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E14" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F14" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G14" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H14" t="n">
         <v>31.21222238001735</v>
@@ -5278,25 +5278,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L14" t="n">
-        <v>361.3007174531585</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M14" t="n">
-        <v>361.3007174531585</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N14" t="n">
-        <v>747.5519694058733</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O14" t="n">
-        <v>1133.803221358588</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P14" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q14" t="n">
         <v>1520.054473311303</v>
@@ -5305,25 +5305,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S14" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T14" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U14" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V14" t="n">
-        <v>1210.773564337348</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W14" t="n">
-        <v>827.0132634725169</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X14" t="n">
-        <v>432.9195465531059</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y14" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>477.2687567837004</v>
+        <v>451.9044990985123</v>
       </c>
       <c r="C15" t="n">
-        <v>343.2736855326461</v>
+        <v>317.909427847458</v>
       </c>
       <c r="D15" t="n">
-        <v>226.3765277520385</v>
+        <v>317.909427847458</v>
       </c>
       <c r="E15" t="n">
-        <v>105.8837117443665</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F15" t="n">
-        <v>31.21222238001735</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G15" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H15" t="n">
         <v>31.21222238001735</v>
@@ -5363,19 +5363,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M15" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N15" t="n">
-        <v>1382.778835800795</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O15" t="n">
-        <v>1560.611119000868</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P15" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q15" t="n">
         <v>1560.611119000868</v>
@@ -5384,25 +5384,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T15" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U15" t="n">
-        <v>1203.918444326094</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V15" t="n">
-        <v>990.2069173191283</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W15" t="n">
-        <v>776.973749055457</v>
+        <v>866.3345500315471</v>
       </c>
       <c r="X15" t="n">
-        <v>776.973749055457</v>
+        <v>690.00856817044</v>
       </c>
       <c r="Y15" t="n">
-        <v>617.571789419287</v>
+        <v>530.60660853427</v>
       </c>
     </row>
     <row r="16">
@@ -5460,25 +5460,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S16" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T16" t="n">
-        <v>1049.39789353288</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U16" t="n">
-        <v>766.5997460790038</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V16" t="n">
-        <v>492.7140010185257</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W16" t="n">
-        <v>213.6443365274001</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X16" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="Y16" t="n">
         <v>31.21222238001735</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>451.8896763163319</v>
+        <v>1054.889944710562</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960203</v>
+        <v>1054.889944710562</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>295.9505570973564</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M17" t="n">
-        <v>812.7934917636815</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N17" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O17" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1730.766722221061</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>1730.766722221061</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V17" t="n">
-        <v>1730.766722221061</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W17" t="n">
-        <v>1347.00642135623</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X17" t="n">
-        <v>946.3630235251826</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y17" t="n">
-        <v>862.1108559808214</v>
+        <v>1465.111124375051</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5627,19 +5627,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.5024989606081</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>676.4091265223246</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>516.9144818452346</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>356.0036667135541</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5703,22 +5703,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1072.238197571844</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>1072.238197571844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>1072.238197571844</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.5024989606081</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>446.2290155365415</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C20" t="n">
-        <v>446.2290155365415</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D20" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E20" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N20" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
         <v>2047.697635790537</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1981.40694194785</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>1631.56938728433</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W20" t="n">
-        <v>1247.809086419499</v>
+        <v>762.8947626663735</v>
       </c>
       <c r="X20" t="n">
-        <v>847.1656885884514</v>
+        <v>762.8947626663735</v>
       </c>
       <c r="Y20" t="n">
-        <v>446.2290155365415</v>
+        <v>762.8947626663735</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>751.4208778585604</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1268.263812524885</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O21" t="n">
-        <v>1785.106747191211</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P21" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5864,19 +5864,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1101.974066676486</v>
+        <v>494.4442079614679</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>494.4442079614679</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>494.4442079614679</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5940,22 +5940,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1384.772214130362</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>1101.974066676486</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V22" t="n">
-        <v>1101.974066676486</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W22" t="n">
-        <v>1101.974066676486</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X22" t="n">
-        <v>1101.974066676486</v>
+        <v>906.8796129667476</v>
       </c>
       <c r="Y22" t="n">
-        <v>1101.974066676486</v>
+        <v>682.1439143555123</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>856.3536062232714</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="C23" t="n">
-        <v>446.2290155365415</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="D23" t="n">
-        <v>41.76508562960203</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="E23" t="n">
-        <v>41.76508562960203</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L23" t="n">
-        <v>812.7934917636815</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N23" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O23" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.697635790537</v>
@@ -6016,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1964.779002435892</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1742.572518382751</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1742.572518382751</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1742.572518382751</v>
       </c>
       <c r="W23" t="n">
-        <v>2068.154856770718</v>
+        <v>1358.812217517919</v>
       </c>
       <c r="X23" t="n">
-        <v>1667.511458939671</v>
+        <v>1358.812217517919</v>
       </c>
       <c r="Y23" t="n">
-        <v>1266.574785887761</v>
+        <v>957.8755444660092</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
         <v>234.5779431922353</v>
@@ -6077,13 +6077,13 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N24" t="n">
-        <v>1724.070068790184</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.9487572975349</v>
+        <v>494.4442079614679</v>
       </c>
       <c r="C25" t="n">
-        <v>558.8553848592514</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D25" t="n">
-        <v>558.8553848592514</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E25" t="n">
-        <v>558.8553848592514</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F25" t="n">
-        <v>558.8553848592514</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T25" t="n">
-        <v>2028.781875054566</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U25" t="n">
-        <v>1745.983727600691</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V25" t="n">
-        <v>1472.097982540213</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.028318049087</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X25" t="n">
-        <v>954.6844559087702</v>
+        <v>906.8796129667476</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.9487572975349</v>
+        <v>682.1439143555123</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>867.259427582854</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="C26" t="n">
-        <v>867.259427582854</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="D26" t="n">
-        <v>462.7954976759145</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="E26" t="n">
-        <v>462.7954976759145</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>652.0324206032121</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N26" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O26" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6253,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
-        <v>2001.500680942252</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1651.663126278733</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W26" t="n">
-        <v>1267.902825413901</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X26" t="n">
-        <v>867.259427582854</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y26" t="n">
-        <v>867.259427582854</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7254774811263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N27" t="n">
+        <v>1054.568412147452</v>
+      </c>
+      <c r="O27" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P27" t="n">
         <v>2088.254281480102</v>
@@ -6338,19 +6338,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1109.57853079593</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.278237189974</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W28" t="n">
-        <v>1297.278237189974</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X28" t="n">
-        <v>1297.278237189974</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y28" t="n">
-        <v>1297.278237189974</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2088.254281480102</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.129690793372</v>
+        <v>1055.279808909184</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.863997266186</v>
+        <v>1055.279808909184</v>
       </c>
       <c r="E29" t="n">
-        <v>871.5237817830823</v>
+        <v>640.9395934260806</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>219.9091813797681</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M29" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N29" t="n">
-        <v>2047.697635790537</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>1465.404399595914</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.450954962252</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N30" t="n">
-        <v>1592.293889628578</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1073.455858920572</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6645,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1485.891263925851</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1261.155565314616</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1265.081890330439</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C32" t="n">
-        <v>854.9572996437093</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D32" t="n">
-        <v>450.4933697367699</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E32" t="n">
-        <v>450.4933697367699</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M32" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N32" t="n">
-        <v>1846.479361096332</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O32" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>2075.946467825976</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W32" t="n">
-        <v>2075.946467825976</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X32" t="n">
-        <v>1675.303069994929</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y32" t="n">
-        <v>1675.303069994929</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N33" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O33" t="n">
         <v>1571.411346813777</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6882,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T34" t="n">
-        <v>1485.891263925851</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U34" t="n">
-        <v>1485.891263925851</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V34" t="n">
-        <v>1212.005518865373</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W34" t="n">
-        <v>1212.005518865373</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X34" t="n">
-        <v>1212.005518865373</v>
+        <v>350.1957204523937</v>
       </c>
       <c r="Y34" t="n">
-        <v>1212.005518865373</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1678.033101815612</v>
+        <v>959.2718510455712</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.908511128882</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="D35" t="n">
-        <v>871.5237817830823</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959272</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962252</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6964,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>959.2718510455712</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
@@ -7022,22 +7022,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N36" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.8553848592514</v>
+        <v>539.6034938194321</v>
       </c>
       <c r="C37" t="n">
-        <v>558.8553848592514</v>
+        <v>368.5101213811486</v>
       </c>
       <c r="D37" t="n">
-        <v>558.8553848592514</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E37" t="n">
-        <v>558.8553848592514</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F37" t="n">
-        <v>558.8553848592514</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2005.8672835425</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1766.318544519202</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U37" t="n">
-        <v>1483.520397065326</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.634652004848</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.634652004848</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X37" t="n">
-        <v>971.2907898645311</v>
+        <v>539.6034938194321</v>
       </c>
       <c r="Y37" t="n">
-        <v>746.5550912532958</v>
+        <v>539.6034938194321</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.76508562960203</v>
+        <v>1373.612066528674</v>
       </c>
       <c r="C38" t="n">
-        <v>41.76508562960203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960203</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
@@ -7186,16 +7186,16 @@
         <v>295.9505570973564</v>
       </c>
       <c r="N38" t="n">
-        <v>733.4074053521595</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O38" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817052</v>
+        <v>1373.612066528674</v>
       </c>
       <c r="W38" t="n">
-        <v>740.1083749522209</v>
+        <v>1373.612066528674</v>
       </c>
       <c r="X38" t="n">
-        <v>451.9862652940915</v>
+        <v>1373.612066528674</v>
       </c>
       <c r="Y38" t="n">
-        <v>451.9862652940915</v>
+        <v>1373.612066528674</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
@@ -7259,19 +7259,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>704.723947463468</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>704.723947463468</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N39" t="n">
-        <v>704.723947463468</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O39" t="n">
-        <v>1221.566882129793</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>871.2346686556129</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>871.2346686556129</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1297.278237189974</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1297.278237189974</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>1058.934375049657</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1058.934375049657</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.673583001884</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C41" t="n">
-        <v>352.673583001884</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D41" t="n">
-        <v>352.673583001884</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E41" t="n">
-        <v>352.673583001884</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L41" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M41" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N41" t="n">
-        <v>2047.697635790537</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O41" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>1730.766722221061</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>1730.766722221061</v>
+        <v>1278.072386210928</v>
       </c>
       <c r="W41" t="n">
-        <v>1347.00642135623</v>
+        <v>1278.072386210928</v>
       </c>
       <c r="X41" t="n">
-        <v>946.3630235251826</v>
+        <v>1278.072386210928</v>
       </c>
       <c r="Y41" t="n">
-        <v>545.4263504732727</v>
+        <v>877.1357131590178</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
@@ -7499,16 +7499,16 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.63115809937611</v>
+        <v>272.3308644934205</v>
       </c>
       <c r="C43" t="n">
-        <v>84.63115809937611</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>740.1083749522209</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C44" t="n">
-        <v>740.1083749522209</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D44" t="n">
-        <v>740.1083749522209</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E44" t="n">
-        <v>740.1083749522209</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F44" t="n">
         <v>352.673583001884</v>
@@ -7642,58 +7642,58 @@
         <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L44" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M44" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N44" t="n">
-        <v>812.7934917636815</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O44" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221061</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.868675817052</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W44" t="n">
-        <v>740.1083749522209</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X44" t="n">
-        <v>740.1083749522209</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y44" t="n">
-        <v>740.1083749522209</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
@@ -7733,22 +7733,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7763,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.2014307549252</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C46" t="n">
-        <v>675.2014307549252</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2014307549252</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="E46" t="n">
-        <v>675.2014307549252</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F46" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1848.705542456804</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1565.907395002928</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1292.02164994245</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.951985451324</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>774.6081233110078</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.2014307549252</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>479.2891694234339</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130616</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072622</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5483203474799</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>445.9785625348322</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
-        <v>207.3347522610868</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439668</v>
+        <v>202.9638619164196</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
@@ -8221,25 +8221,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>143.2741981615041</v>
       </c>
       <c r="N5" t="n">
-        <v>426.3350130527215</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O5" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.9785625348323</v>
+        <v>242.3707839019632</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M6" t="n">
-        <v>244.1092848557653</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8458,25 +8458,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>102.3078893841658</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P8" t="n">
-        <v>468.0383943543247</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>400.6454545179966</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P9" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>479.289169423434</v>
+        <v>231.5538328679743</v>
       </c>
       <c r="L11" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>235.3297339513764</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>447.9042587502169</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P12" t="n">
-        <v>398.7905657099514</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>428.908120358947</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M14" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
         <v>483.342555376</v>
@@ -8947,7 +8947,7 @@
         <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9011,22 +9011,22 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>237.3800478889625</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9166,28 +9166,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>493.821586277062</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>98.1240166537967</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M20" t="n">
-        <v>553.2940084590247</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9482,28 +9482,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>72.2360729453882</v>
       </c>
       <c r="P21" t="n">
-        <v>330.6111652313504</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>296.5410069764445</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9722,19 +9722,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>425.6143201009266</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>555.489182064824</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9959,19 +9959,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>554.1634861730678</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>549.1401736751963</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P30" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10351,28 +10351,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>337.4068669225205</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>98.1240166537967</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10591,22 +10591,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O35" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10670,25 +10670,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7878950544002</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>70.59911775623691</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>298.7361805822439</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
-        <v>334.2508956958894</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -22567,7 +22567,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>302.6847487167955</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>53.28073791739968</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>62.07472274875472</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>30.13303885840577</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>39.76999735293188</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22786,10 +22786,10 @@
         <v>15.96618811762767</v>
       </c>
       <c r="C5" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22849,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>6.484184102520089</v>
+        <v>186.9186599025861</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.28073791739979</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22877,10 +22877,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>93.04494917371866</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.42449318090652</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -23007,7 +23007,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.9898960472493</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
-        <v>282.379101305863</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>120.59765573767</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>159.0076286890867</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>89.22034074351562</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,7 +23181,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -23196,10 +23196,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>82.68617307340608</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>125.650168077609</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>147.8650214319691</v>
+        <v>26.13668029210464</v>
       </c>
       <c r="D11" t="n">
         <v>10.26651085765315</v>
@@ -23278,7 +23278,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>6.774526571173908</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>157.3100121176409</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>151.4165948243601</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>120.8067288170043</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>129.8409629771976</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23509,10 +23509,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>6.484184102520089</v>
+        <v>188.8868188364063</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.3898351402501</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>60.98491396783066</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>33.94550654861483</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>20.54110546596223</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967732</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>224.4426013718416</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>313.5176604524732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.18052675738804</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23986,7 +23986,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>148.7110206861554</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>22.55852383701074</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.83362056170989</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>39.71207766604321</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24192,10 +24192,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>11.68773820007172</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24268,10 +24268,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>360.0242673938934</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>49.79280939958015</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24375,10 +24375,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24414,19 +24414,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>178.2755692717849</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>193.7639970968789</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>168.6038222906138</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>21.30520108346107</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>12.07625401595556</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>313.7665915295293</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24745,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>57.0666462400653</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>53.75625664670241</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>334.1544435993001</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.7251922248155</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>86.52445186445988</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.998408555528044</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>284.274234533477</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25362,10 +25362,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>102.9647224806626</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>42.1115614076285</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25411,7 +25411,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>247.2459568045055</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>111.3960752911889</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>87.88318588847373</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>215.2937280711698</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>152.6616732899361</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>99.02201586903948</v>
       </c>
       <c r="D43" t="n">
-        <v>115.4622864852427</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25876,7 +25876,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>33.25966389501588</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>276.0755616894537</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>108.6913105436401</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.0757159946012</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477656.8429905969</v>
+        <v>477656.842990597</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477656.8429905971</v>
+        <v>477656.842990597</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477656.8429905971</v>
+        <v>477656.842990597</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>571496.6015712839</v>
+        <v>571496.601571284</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>571496.6015712838</v>
+        <v>571496.6015712839</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>571496.601571284</v>
+        <v>571496.6015712839</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571496.6015712839</v>
+        <v>571496.6015712841</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>571496.601571284</v>
+        <v>571496.6015712841</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119273.9482617199</v>
+        <v>119273.94826172</v>
       </c>
       <c r="C2" t="n">
         <v>119273.94826172</v>
@@ -26331,7 +26331,7 @@
         <v>142694.2606395788</v>
       </c>
       <c r="H2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="I2" t="n">
         <v>142694.2606395788</v>
@@ -26340,13 +26340,13 @@
         <v>142694.2606395788</v>
       </c>
       <c r="K2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="L2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="M2" t="n">
-        <v>142694.2606395789</v>
+        <v>142694.2606395788</v>
       </c>
       <c r="N2" t="n">
         <v>142694.2606395788</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36154.76904703023</v>
+        <v>36154.76904703026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102081.1339049657</v>
+        <v>102081.1339049658</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31744.46367344755</v>
+        <v>31744.46367344758</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40657.35427172508</v>
+        <v>40657.3542717251</v>
       </c>
       <c r="C4" t="n">
+        <v>40657.3542717251</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40657.3542717251</v>
+      </c>
+      <c r="E4" t="n">
         <v>40657.35427172509</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40657.35427172509</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40657.3542717251</v>
       </c>
       <c r="F4" t="n">
         <v>40657.3542717251</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57348.88900881317</v>
+        <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
         <v>57348.88900881319</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109481.4650270502</v>
+        <v>-110315.1293022967</v>
       </c>
       <c r="C6" t="n">
-        <v>21267.70498118171</v>
+        <v>20434.04070593523</v>
       </c>
       <c r="D6" t="n">
-        <v>21267.7049811817</v>
+        <v>20434.04070593526</v>
       </c>
       <c r="E6" t="n">
-        <v>54895.30498118166</v>
+        <v>54061.64070593522</v>
       </c>
       <c r="F6" t="n">
-        <v>54895.3049811817</v>
+        <v>54061.64070593526</v>
       </c>
       <c r="G6" t="n">
-        <v>26079.80902211265</v>
+        <v>25402.28016271856</v>
       </c>
       <c r="H6" t="n">
-        <v>62234.57806914297</v>
+        <v>61557.04920974882</v>
       </c>
       <c r="I6" t="n">
-        <v>62234.57806914288</v>
+        <v>61557.04920974882</v>
       </c>
       <c r="J6" t="n">
-        <v>-39846.55583582285</v>
+        <v>-40524.08469521696</v>
       </c>
       <c r="K6" t="n">
-        <v>62234.57806914291</v>
+        <v>61557.04920974882</v>
       </c>
       <c r="L6" t="n">
-        <v>62234.57806914291</v>
+        <v>61557.04920974882</v>
       </c>
       <c r="M6" t="n">
-        <v>62234.57806914294</v>
+        <v>61557.04920974879</v>
       </c>
       <c r="N6" t="n">
-        <v>62234.57806914288</v>
+        <v>61557.04920974879</v>
       </c>
       <c r="O6" t="n">
-        <v>30490.11439569536</v>
+        <v>29812.5855363013</v>
       </c>
       <c r="P6" t="n">
-        <v>62234.57806914288</v>
+        <v>61557.04920974879</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
         <v>390.1527797502169</v>
@@ -26804,34 +26804,34 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>117.6360295908605</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
-        <v>149.7704685226693</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502168</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34941,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>49.98397370445868</v>
+      </c>
+      <c r="N5" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N5" t="n">
-        <v>333.4227222961022</v>
       </c>
       <c r="O5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
+        <v>186.5450011173478</v>
+      </c>
+      <c r="L6" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>186.5450011173479</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="N8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M8" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P8" t="n">
-        <v>374.3890310734406</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N9" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N11" t="n">
-        <v>142.4174431947571</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="P12" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O12" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P12" t="n">
-        <v>344.5309307071477</v>
-      </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>333.4227222961022</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>390.1527797502169</v>
@@ -35667,7 +35667,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35731,22 +35731,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
+        <v>216.4031014836408</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O15" t="n">
-        <v>179.6285688889625</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M20" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36202,28 +36202,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="P21" t="n">
-        <v>276.3515302285466</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>203.2507825193991</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36442,19 +36442,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>460.0037840019792</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P30" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>244.2170912967374</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>40.55973291537929</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,22 +37311,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O35" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37390,25 +37390,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>441.8756042977809</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>14.48459394538786</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.2170912967374</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
